--- a/Unity/Assets/Config/Excel/Datas/Random/RandomSet.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Random/RandomSet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>##var</t>
   </si>
@@ -22,7 +22,10 @@
     <t>Id</t>
   </si>
   <si>
-    <t>*items</t>
+    <t>items</t>
+  </si>
+  <si>
+    <t>xxx</t>
   </si>
   <si>
     <t>##type</t>
@@ -41,6 +44,9 @@
   </si>
   <si>
     <t>备注</t>
+  </si>
+  <si>
+    <t>占位,合并字段不能最后</t>
   </si>
   <si>
     <t>R建筑合集</t>
@@ -450,12 +456,45 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -580,7 +619,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -592,34 +631,34 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -704,11 +743,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -718,7 +763,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1040,146 +1085,143 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="2" width="9.14285714285714" style="1"/>
     <col min="3" max="3" width="21.4285714285714" style="1" customWidth="1"/>
-    <col min="4" max="5" width="23.5714285714286" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5714285714286" style="2" customWidth="1"/>
+    <col min="5" max="5" width="23.5714285714286" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.9285714285714" style="1" customWidth="1"/>
-    <col min="7" max="12" width="23.8125" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.14285714285714" style="1"/>
+    <col min="7" max="11" width="23.8125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="23.8125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="23.2142857142857" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="5" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="1:13">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5" t="s">
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="1:13">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
+      <c r="C3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="1">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="4:4">
-      <c r="D5" s="1" t="s">
-        <v>10</v>
+      <c r="E5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="4:4">
-      <c r="D7" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6">
-      <c r="B8" s="1">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="4:4">
-      <c r="D9" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/Datas/Random/RandomSet.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Random/RandomSet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18060"/>
+    <workbookView windowHeight="17560"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>##var</t>
   </si>
@@ -49,7 +49,7 @@
     <t>占位,合并字段不能最后</t>
   </si>
   <si>
-    <t>R建筑合集</t>
+    <t>R建筑集合</t>
   </si>
   <si>
     <t>3001,500,Building,1,1</t>
@@ -61,10 +61,25 @@
     <t>3003,2000,Building,1,1</t>
   </si>
   <si>
-    <t>SR建筑合集</t>
-  </si>
-  <si>
-    <t>SSR建筑合集</t>
+    <t>SR建筑集合</t>
+  </si>
+  <si>
+    <t>SSR建筑集合</t>
+  </si>
+  <si>
+    <t>物品掉落</t>
+  </si>
+  <si>
+    <t>5001,500,Drop,1,2</t>
+  </si>
+  <si>
+    <t>5002,500,Drop,1,2</t>
+  </si>
+  <si>
+    <t>5001,500,Drop,1,1</t>
+  </si>
+  <si>
+    <t>5002,500,Drop,1,1</t>
   </si>
 </sst>
 </file>
@@ -1085,13 +1100,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="2" width="9.14285714285714" style="1"/>
     <col min="3" max="3" width="21.4285714285714" style="1" customWidth="1"/>
@@ -1224,6 +1239,34 @@
         <v>14</v>
       </c>
     </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="1">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:L1"/>

--- a/Unity/Assets/Config/Excel/Datas/Random/RandomSet.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Random/RandomSet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17560"/>
+    <workbookView windowHeight="15900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="52">
   <si>
     <t>##var</t>
   </si>
@@ -52,13 +52,13 @@
     <t>R建筑集合</t>
   </si>
   <si>
-    <t>3001,500,Building,1,1</t>
-  </si>
-  <si>
-    <t>3002,500,Building,1,1</t>
-  </si>
-  <si>
-    <t>3003,2000,Building,1,1</t>
+    <t>30011,500,Building,1,1</t>
+  </si>
+  <si>
+    <t>30021,500,Building,1,1</t>
+  </si>
+  <si>
+    <t>30031,2000,Building,1,1</t>
   </si>
   <si>
     <t>SR建筑集合</t>
@@ -80,6 +80,96 @@
   </si>
   <si>
     <t>5002,500,Drop,1,1</t>
+  </si>
+  <si>
+    <t>1/4波</t>
+  </si>
+  <si>
+    <t>40011,500,Soldier,1,1</t>
+  </si>
+  <si>
+    <t>40021,500,Soldier,1,1</t>
+  </si>
+  <si>
+    <t>40031,200,Soldier,1,1</t>
+  </si>
+  <si>
+    <t>40012,100,Soldier,1,1</t>
+  </si>
+  <si>
+    <t>40022,100,Soldier,1,1</t>
+  </si>
+  <si>
+    <t>40032,50,Soldier,1,1</t>
+  </si>
+  <si>
+    <t>2/4波</t>
+  </si>
+  <si>
+    <t>40011,350,Soldier,1,1</t>
+  </si>
+  <si>
+    <t>40021,350,Soldier,1,1</t>
+  </si>
+  <si>
+    <t>40031,350,Soldier,1,1</t>
+  </si>
+  <si>
+    <t>40012,200,Soldier,1,1</t>
+  </si>
+  <si>
+    <t>40022,200,Soldier,1,1</t>
+  </si>
+  <si>
+    <t>40032,100,Soldier,1,1</t>
+  </si>
+  <si>
+    <t>3/4波</t>
+  </si>
+  <si>
+    <t>40011,200,Soldier,1,1</t>
+  </si>
+  <si>
+    <t>40021,200,Soldier,1,1</t>
+  </si>
+  <si>
+    <t>4/4波</t>
+  </si>
+  <si>
+    <t>40011,100,Soldier,1,1</t>
+  </si>
+  <si>
+    <t>40021,300,Soldier,1,1</t>
+  </si>
+  <si>
+    <t>40031,300,Soldier,1,1</t>
+  </si>
+  <si>
+    <t>1/6波</t>
+  </si>
+  <si>
+    <t>2/6波</t>
+  </si>
+  <si>
+    <t>3/6波</t>
+  </si>
+  <si>
+    <t>4/6波</t>
+  </si>
+  <si>
+    <t>5/6波</t>
+  </si>
+  <si>
+    <t>40013,200,Soldier,1,1</t>
+  </si>
+  <si>
+    <t>40023,200,Soldier,1,1</t>
+  </si>
+  <si>
+    <t>40033,100,Soldier,1,1</t>
+  </si>
+  <si>
+    <t>6/6波</t>
   </si>
 </sst>
 </file>
@@ -758,7 +848,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -779,6 +869,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1100,13 +1196,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="B9" sqref="B9:I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>
   <cols>
     <col min="1" max="2" width="9.14285714285714" style="1"/>
     <col min="3" max="3" width="21.4285714285714" style="1" customWidth="1"/>
@@ -1267,6 +1363,266 @@
         <v>21</v>
       </c>
     </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="1">
+        <v>4001</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="1">
+        <v>4002</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" s="1">
+        <v>4003</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" s="1">
+        <v>4004</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="1">
+        <v>4011</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" s="1">
+        <v>4012</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15" s="1">
+        <v>4013</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="B16" s="1">
+        <v>4014</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="1">
+        <v>4015</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="1">
+        <v>4016</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:L1"/>

--- a/Unity/Assets/Config/Excel/Datas/Random/RandomSet.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Random/RandomSet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15900"/>
+    <workbookView windowHeight="15820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="59">
   <si>
     <t>##var</t>
   </si>
@@ -170,6 +170,27 @@
   </si>
   <si>
     <t>6/6波</t>
+  </si>
+  <si>
+    <t>1/4抽卡</t>
+  </si>
+  <si>
+    <t>30041,2000,Building,1,1</t>
+  </si>
+  <si>
+    <t>2001,2000,Block,1,1</t>
+  </si>
+  <si>
+    <t>2002,2000,Block,1,1</t>
+  </si>
+  <si>
+    <t>2003,2000,Block,1,1</t>
+  </si>
+  <si>
+    <t>2/4抽卡</t>
+  </si>
+  <si>
+    <t>3/4抽卡</t>
   </si>
 </sst>
 </file>
@@ -874,7 +895,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1196,20 +1217,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:I18"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>
   <cols>
     <col min="1" max="2" width="9.14285714285714" style="1"/>
     <col min="3" max="3" width="21.4285714285714" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5714285714286" style="2" customWidth="1"/>
-    <col min="5" max="5" width="23.5714285714286" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.9285714285714" style="1" customWidth="1"/>
-    <col min="7" max="11" width="23.8125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.9285714285714" style="2" customWidth="1"/>
+    <col min="5" max="5" width="24.9285714285714" style="1" customWidth="1"/>
+    <col min="6" max="7" width="26.2857142857143" style="1" customWidth="1"/>
+    <col min="8" max="9" width="23.7857142857143" style="1" customWidth="1"/>
+    <col min="10" max="11" width="23.8125" style="1" customWidth="1"/>
     <col min="12" max="12" width="23.8125" style="3" customWidth="1"/>
     <col min="13" max="13" width="23.2142857142857" style="1" customWidth="1"/>
     <col min="14" max="16384" width="9.14285714285714" style="1"/>
@@ -1363,75 +1385,49 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="2:9">
-      <c r="B9" s="1">
-        <v>4001</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
     <row r="10" spans="2:9">
       <c r="B10" s="1">
-        <v>4002</v>
+        <v>4001</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>33</v>
+        <v>25</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="2:9">
       <c r="B11" s="1">
-        <v>4003</v>
+        <v>4002</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>33</v>
       </c>
       <c r="H11" s="1" t="s">
@@ -1443,21 +1439,21 @@
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="1">
-        <v>4004</v>
+        <v>4003</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>33</v>
       </c>
       <c r="H12" s="1" t="s">
@@ -1469,73 +1465,73 @@
     </row>
     <row r="13" spans="2:9">
       <c r="B13" s="1">
-        <v>4011</v>
+        <v>4004</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>26</v>
+        <v>42</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="2:9">
       <c r="B14" s="1">
-        <v>4012</v>
+        <v>4011</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>33</v>
+        <v>25</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="2:9">
       <c r="B15" s="1">
-        <v>4013</v>
+        <v>4012</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="8" t="s">
         <v>33</v>
       </c>
       <c r="H15" s="1" t="s">
@@ -1547,21 +1543,21 @@
     </row>
     <row r="16" spans="2:9">
       <c r="B16" s="1">
-        <v>4014</v>
+        <v>4013</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G16" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="8" t="s">
         <v>33</v>
       </c>
       <c r="H16" s="1" t="s">
@@ -1573,36 +1569,36 @@
     </row>
     <row r="17" spans="2:9">
       <c r="B17" s="1">
-        <v>4015</v>
+        <v>4014</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="I17" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="1">
-        <v>4016</v>
+        <v>4015</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>33</v>
@@ -1613,7 +1609,7 @@
       <c r="F18" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="G18" s="8" t="s">
         <v>48</v>
       </c>
       <c r="H18" s="1" t="s">
@@ -1622,6 +1618,131 @@
       <c r="I18" s="1" t="s">
         <v>50</v>
       </c>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="1">
+        <v>4016</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="1">
+        <v>80001</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" s="1">
+        <v>80002</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="1">
+        <v>80003</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="6:6">
+      <c r="F29" s="9"/>
+    </row>
+    <row r="30" spans="6:6">
+      <c r="F30" s="9"/>
+    </row>
+    <row r="31" spans="6:6">
+      <c r="F31" s="9"/>
+    </row>
+    <row r="32" spans="6:6">
+      <c r="F32" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Unity/Assets/Config/Excel/Datas/Random/RandomSet.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Random/RandomSet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="61">
   <si>
     <t>##var</t>
   </si>
@@ -70,16 +70,16 @@
     <t>物品掉落</t>
   </si>
   <si>
-    <t>5001,500,Drop,1,2</t>
-  </si>
-  <si>
-    <t>5002,500,Drop,1,2</t>
-  </si>
-  <si>
-    <t>5001,500,Drop,1,1</t>
-  </si>
-  <si>
-    <t>5002,500,Drop,1,1</t>
+    <t>5001,500,Item,1,2</t>
+  </si>
+  <si>
+    <t>5002,500,Item,1,2</t>
+  </si>
+  <si>
+    <t>5001,500,Item,1,1</t>
+  </si>
+  <si>
+    <t>5002,500,Item,1,1</t>
   </si>
   <si>
     <t>1/4波</t>
@@ -185,6 +185,12 @@
   </si>
   <si>
     <t>2003,2000,Block,1,1</t>
+  </si>
+  <si>
+    <t>5001,2000,Item,1,1</t>
+  </si>
+  <si>
+    <t>5002,2000,Item,1,1</t>
   </si>
   <si>
     <t>2/4抽卡</t>
@@ -1219,8 +1225,8 @@
   <sheetPr/>
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>
@@ -1645,7 +1651,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:12">
       <c r="B21" s="1">
         <v>80001</v>
       </c>
@@ -1673,13 +1679,19 @@
       <c r="J21" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="22" spans="2:10">
+      <c r="K21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12">
       <c r="B22" s="1">
         <v>80002</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>12</v>
@@ -1702,13 +1714,19 @@
       <c r="J22" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="23" spans="2:10">
+      <c r="K22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12">
       <c r="B23" s="1">
         <v>80003</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>12</v>
@@ -1730,6 +1748,12 @@
       </c>
       <c r="J23" s="1" t="s">
         <v>56</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="6:6">
